--- a/raw-data-prep/raw_data/Writing_Task_Evaluation_AM.xlsx
+++ b/raw-data-prep/raw_data/Writing_Task_Evaluation_AM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="165" windowWidth="17235" windowHeight="11250"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$58</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -21,29 +24,29 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>A</t>
+    <t>rating1</t>
   </si>
   <si>
-    <t>B</t>
+    <t>rating2</t>
   </si>
   <si>
-    <t>C</t>
+    <t>rating3</t>
   </si>
   <si>
-    <t>D</t>
+    <t>rating4</t>
   </si>
   <si>
-    <t>E</t>
+    <t>rating5</t>
   </si>
   <si>
-    <t>F</t>
+    <t>rating6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +166,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -197,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,17 +377,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>124</v>
       </c>
@@ -428,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>125</v>
       </c>
@@ -451,7 +456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>126</v>
       </c>
@@ -474,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>127</v>
       </c>
@@ -497,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>128</v>
       </c>
@@ -520,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>129</v>
       </c>
@@ -543,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>130</v>
       </c>
@@ -566,7 +571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>132</v>
       </c>
@@ -589,7 +594,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>133</v>
       </c>
@@ -612,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>134</v>
       </c>
@@ -635,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>136</v>
       </c>
@@ -658,7 +663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>137</v>
       </c>
@@ -681,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>138</v>
       </c>
@@ -704,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>140</v>
       </c>
@@ -727,7 +732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>139</v>
       </c>
@@ -750,7 +755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>141</v>
       </c>
@@ -773,7 +778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>140</v>
       </c>
@@ -796,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>143</v>
       </c>
@@ -819,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>144</v>
       </c>
@@ -842,7 +847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>145</v>
       </c>
@@ -865,7 +870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>147</v>
       </c>
@@ -888,7 +893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>146</v>
       </c>
@@ -911,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>148</v>
       </c>
@@ -934,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>150</v>
       </c>
@@ -957,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>149</v>
       </c>
@@ -980,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>152</v>
       </c>
@@ -1003,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>151</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>153</v>
       </c>
@@ -1049,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>154</v>
       </c>
@@ -1072,7 +1077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>156</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>155</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>157</v>
       </c>
@@ -1141,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>158</v>
       </c>
@@ -1164,7 +1169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>159</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>160</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>161</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>162</v>
       </c>
@@ -1256,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>163</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>164</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>165</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>166</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>167</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>168</v>
       </c>
@@ -1394,7 +1399,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>169</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>170</v>
       </c>
@@ -1440,7 +1445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>171</v>
       </c>
@@ -1463,7 +1468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>173</v>
       </c>
@@ -1486,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>172</v>
       </c>
@@ -1509,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>175</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>174</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>177</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>176</v>
       </c>
@@ -1601,7 +1606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>178</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>180</v>
       </c>
@@ -1647,7 +1652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>179</v>
       </c>
@@ -1670,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>182</v>
       </c>
@@ -1693,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>181</v>
       </c>
@@ -1717,29 +1722,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G58"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
